--- a/VTWRFantasyPredictions2019.xlsx
+++ b/VTWRFantasyPredictions2019.xlsx
@@ -385,17 +385,17 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>215.3327178955078</v>
+        <v>186.4598693847656</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Michael Thomas</t>
+          <t>Julio Jones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>192.3363189697266</v>
+        <v>180.2821197509766</v>
       </c>
     </row>
     <row r="4">
@@ -405,67 +405,67 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.6373748779297</v>
+        <v>179.2057647705078</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Davante Adams</t>
+          <t>Michael Thomas</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>187.9724884033203</v>
+        <v>177.8799743652344</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Julio Jones</t>
+          <t>Tyreek Hill</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>186.8521423339844</v>
+        <v>176.7317352294922</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Tyreek Hill</t>
+          <t>Mike Evans</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>178.5200042724609</v>
+        <v>174.5163421630859</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Odell Beckham</t>
+          <t>Davante Adams</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>174.6899566650391</v>
+        <v>173.1025390625</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Antonio Brown</t>
+          <t>Odell Beckham</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>174.0647277832031</v>
+        <v>155.7762756347656</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Mike Evans</t>
+          <t>Antonio Brown</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>169.8216857910156</v>
+        <v>154.3361053466797</v>
       </c>
     </row>
     <row r="11">
@@ -475,197 +475,197 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>160.5435180664062</v>
+        <v>151.4258270263672</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Julian Edelman</t>
+          <t>Brandin Cooks</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>156.0110321044922</v>
+        <v>144.8137512207031</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Stefon Diggs</t>
+          <t>Keenan Allen</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>149.6831817626953</v>
+        <v>140.7403106689453</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Keenan Allen</t>
+          <t>Robert Woods</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>147.9966430664062</v>
+        <v>139.7273712158203</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Emmanuel Sanders</t>
+          <t>Julian Edelman</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>147.4188537597656</v>
+        <v>138.5399475097656</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Brandin Cooks</t>
+          <t>Tyler Boyd</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>143.3614654541016</v>
+        <v>135.5537414550781</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Robert Woods</t>
+          <t>Stefon Diggs</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>140.2570648193359</v>
+        <v>134.5524597167969</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>D.J. Moore</t>
+          <t>T.Y. Hilton</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>139.6031646728516</v>
+        <v>129.8935241699219</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>T.Y. Hilton</t>
+          <t>Chris Godwin</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>137.0217742919922</v>
+        <v>129.7701873779297</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Larry Fitzgerald</t>
+          <t>Emmanuel Sanders</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>134.3121185302734</v>
+        <v>126.8921356201172</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Tyler Boyd</t>
+          <t>Calvin Ridley</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>134.1174163818359</v>
+        <v>126.6087875366211</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Jarvis Landry</t>
+          <t>Amari Cooper</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>132.9272003173828</v>
+        <v>122.5937271118164</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Corey Davis</t>
+          <t>D.J. Moore</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>129.7224426269531</v>
+        <v>122.4004135131836</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Chris Godwin</t>
+          <t>Tyler Lockett</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>129.6909942626953</v>
+        <v>122.1190185546875</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Christian Kirk</t>
+          <t>Mike Williams</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>125.5532150268555</v>
+        <v>119.0273666381836</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>DeSean Jackson</t>
+          <t>Corey Davis</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>123.0840759277344</v>
+        <v>118.5579605102539</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Amari Cooper</t>
+          <t>Kenny Golladay</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>121.4976654052734</v>
+        <v>117.7999267578125</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Calvin Ridley</t>
+          <t>Antonio Callaway</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>120.5051956176758</v>
+        <v>115.4087295532227</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Antonio Callaway</t>
+          <t>Jarvis Landry</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>118.9274826049805</v>
+        <v>113.4498138427734</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Kenny Golladay</t>
+          <t>Zay Jones</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>118.131233215332</v>
+        <v>112.7678375244141</v>
       </c>
     </row>
     <row r="31">
@@ -675,17 +675,17 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>117.0566024780273</v>
+        <v>111.7144393920898</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Jordy Nelson</t>
+          <t>DeSean Jackson</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>113.8772659301758</v>
+        <v>110.7177505493164</v>
       </c>
     </row>
     <row r="33">
@@ -695,497 +695,497 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>112.0774230957031</v>
+        <v>110.4943389892578</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Allen Robinson</t>
+          <t>Sterling Shepard</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>110.7811813354492</v>
+        <v>109.0757064819336</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Josh Gordon</t>
+          <t>Larry Fitzgerald</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>110.7704391479492</v>
+        <v>105.964111328125</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Sterling Shepard</t>
+          <t>Christian Kirk</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>110.4624252319336</v>
+        <v>105.3600616455078</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Zay Jones</t>
+          <t>Jordy Nelson</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>108.9833374023438</v>
+        <v>102.1058502197266</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Danny Amendola</t>
+          <t>Nelson Agholor</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>108.6532440185547</v>
+        <v>100.4446258544922</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Tyler Lockett</t>
+          <t>Danny Amendola</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>107.6408615112305</v>
+        <v>100.0188140869141</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Mike Williams</t>
+          <t>Allen Robinson</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>104.3613510131836</v>
+        <v>99.92328643798828</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Golden Tate</t>
+          <t>Taylor Gabriel</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>104.0148696899414</v>
+        <v>99.84493255615234</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Willie Snead</t>
+          <t>Dede Westbrook</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>100.5856552124023</v>
+        <v>98.96830749511719</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Nelson Agholor</t>
+          <t>Willie Snead</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>98.59450531005859</v>
+        <v>98.60259246826172</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Courtland Sutton</t>
+          <t>Mohamed Sanu</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.85916900634766</v>
+        <v>98.34982299804688</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Dede Westbrook</t>
+          <t>Josh Gordon</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>97.74286651611328</v>
+        <v>96.19062805175781</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Curtis Samuel</t>
+          <t>Courtland Sutton</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.48690795898438</v>
+        <v>95.94496154785156</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Taylor Gabriel</t>
+          <t>Robby Anderson</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>97.42826843261719</v>
+        <v>94.60502624511719</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Dante Pettis</t>
+          <t>Curtis Samuel</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>96.93251800537109</v>
+        <v>92.85916137695312</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Michael Crabtree</t>
+          <t>Cole Beasley</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>95.85234832763672</v>
+        <v>92.70040130615234</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Mohamed Sanu</t>
+          <t>Doug Baldwin</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>94.21045684814453</v>
+        <v>89.80236053466797</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Doug Baldwin</t>
+          <t>Golden Tate</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>92.90079498291016</v>
+        <v>89.26971435546875</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Michael Gallup</t>
+          <t>Chester Rogers</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>92.83364868164062</v>
+        <v>89.09223937988281</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Cole Beasley</t>
+          <t>Kendrick Bourne</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>89.14257049560547</v>
+        <v>87.2572021484375</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Equanimeous St. Brown</t>
+          <t>Michael Crabtree</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>89.01280975341797</v>
+        <v>86.97596740722656</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Demaryius Thomas</t>
+          <t>Donte Moncrief</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>88.30033874511719</v>
+        <v>86.03355407714844</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Robby Anderson</t>
+          <t>Dante Pettis</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>88.16391754150391</v>
+        <v>85.20172119140625</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Chester Rogers</t>
+          <t>Michael Gallup</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>86.28105926513672</v>
+        <v>83.49118804931641</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Kendrick Bourne</t>
+          <t>Demaryius Thomas</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>85.10681915283203</v>
+        <v>81.37232208251953</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Taywan Taylor</t>
+          <t>Tyrell Williams</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>84.18931579589844</v>
+        <v>79.80686950683594</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Donte Moncrief</t>
+          <t>Josh Reynolds</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>83.37972259521484</v>
+        <v>79.74552917480469</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Rashard Higgins</t>
+          <t>Tre'Quan Smith</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>81.94892120361328</v>
+        <v>78.82022857666016</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Marquez Valdes-Scantling</t>
+          <t>David Moore</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>79.35671997070312</v>
+        <v>78.62455749511719</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Maurice Harris</t>
+          <t>Anthony Miller</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>75.21031951904297</v>
+        <v>77.63818359375</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>David Moore</t>
+          <t>John Brown</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>74.70728302001953</v>
+        <v>77.37327575683594</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Josh Reynolds</t>
+          <t>Jarius Wright</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>74.68767547607422</v>
+        <v>77.05332946777344</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>John Brown</t>
+          <t>John Ross</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>73.93010711669922</v>
+        <v>76.89546966552734</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Tre'Quan Smith</t>
+          <t>Marquez Valdes-Scantling</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>71.61649322509766</v>
+        <v>75.72468566894531</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>John Ross</t>
+          <t>Chris Hogan</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>71.59420013427734</v>
+        <v>74.79923248291016</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Chris Hogan</t>
+          <t>Rashard Higgins</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>71.39194488525391</v>
+        <v>73.23467254638672</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Devin Funchess</t>
+          <t>Taywan Taylor</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>71.01762390136719</v>
+        <v>72.69511413574219</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Keelan Cole</t>
+          <t>Equanimeous St. Brown</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>70.20092010498047</v>
+        <v>72.01696014404297</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Robert Foster</t>
+          <t>Devin Funchess</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>69.62198638916016</v>
+        <v>71.46933746337891</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Jarius Wright</t>
+          <t>Keelan Cole</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>67.76095581054688</v>
+        <v>69.57817077636719</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Tyrell Williams</t>
+          <t>Maurice Harris</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>64.67707061767578</v>
+        <v>63.75341796875</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Anthony Miller</t>
+          <t>Ryan Switzer</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>61.83425521850586</v>
+        <v>63.17374801635742</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Ryan Switzer</t>
+          <t>Kenny Stills</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>60.93611526489258</v>
+        <v>62.94325637817383</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Trent Sherfield</t>
+          <t>Robert Foster</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>59.31002426147461</v>
+        <v>60.10526657104492</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Travis Benjamin</t>
+          <t>Laquon Treadwell</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>57.62120056152344</v>
+        <v>59.98401641845703</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Jermaine Kearse</t>
+          <t>Chris Conley</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>57.36238861083984</v>
+        <v>59.08988571166992</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Laquon Treadwell</t>
+          <t>Josh Doctson</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>57.24422073364258</v>
+        <v>58.96852493286133</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Tajae Sharpe</t>
+          <t>Seth Roberts</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>54.11547470092773</v>
+        <v>57.51348876953125</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Russell Shepard</t>
+          <t>Jermaine Kearse</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>53.57053756713867</v>
+        <v>56.06588745117188</v>
       </c>
     </row>
     <row r="83">
@@ -1195,367 +1195,367 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>53.19415664672852</v>
+        <v>55.88676834106445</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Zach Pascal</t>
+          <t>Phillip Dorsett</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>52.88476943969727</v>
+        <v>55.0879020690918</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Josh Doctson</t>
+          <t>Trent Sherfield</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>51.92358016967773</v>
+        <v>54.22406005859375</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Ty Montgomery</t>
+          <t>Travis Benjamin</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>48.83591842651367</v>
+        <v>53.017333984375</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Phillip Dorsett</t>
+          <t>DaeSean Hamilton</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>48.45553207397461</v>
+        <v>52.50933837890625</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>J'Mon Moore</t>
+          <t>Zach Pascal</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>48.41297149658203</v>
+        <v>51.6942253112793</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Tim Patrick</t>
+          <t>Tajae Sharpe</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>48.29943084716797</v>
+        <v>51.40332794189453</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Justin Watson</t>
+          <t>James Washington</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>47.70219802856445</v>
+        <v>49.86180114746094</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>DaeSean Hamilton</t>
+          <t>Russell Shepard</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>47.68847274780273</v>
+        <v>49.37905120849609</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>James Washington</t>
+          <t>Aldrick Robinson</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>47.47601318359375</v>
+        <v>48.62548065185547</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Chris Conley</t>
+          <t>Alex Erickson</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>47.2746467590332</v>
+        <v>48.16332244873047</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Seth Roberts</t>
+          <t>Ryan Grant</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>45.20582962036133</v>
+        <v>47.94820785522461</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>Kenny Stills</t>
+          <t>Ty Montgomery</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>44.92940902709961</v>
+        <v>47.94324493408203</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Deonte Thompson</t>
+          <t>Tim Patrick</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>44.52804183959961</v>
+        <v>47.88726425170898</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Ryan Grant</t>
+          <t>Kelvin Benjamin</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>43.63046646118164</v>
+        <v>44.76580047607422</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Damion Ratley</t>
+          <t>Josh Bellamy</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>43.46993637084961</v>
+        <v>44.52719116210938</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Marcus Kemp</t>
+          <t>Deonte Thompson</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>42.92910766601562</v>
+        <v>44.13130569458008</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Sammie Coates</t>
+          <t>Allen Hurns</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>42.3948860168457</v>
+        <v>44.12664031982422</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Chris Moore</t>
+          <t>Andre Roberts</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>41.43320083618164</v>
+        <v>43.88168334960938</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>Aldrick Robinson</t>
+          <t>Chris Moore</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>41.41203689575195</v>
+        <v>42.99977493286133</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>Alex Erickson</t>
+          <t>J'Mon Moore</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>40.68128967285156</v>
+        <v>42.22908782958984</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Kelvin Benjamin</t>
+          <t>Jaron Brown</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>39.1722526550293</v>
+        <v>42.18246078491211</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Richie James</t>
+          <t>Trent Taylor</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>38.60039901733398</v>
+        <v>42.04508590698242</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Michael Floyd</t>
+          <t>Damion Ratley</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>38.59011459350586</v>
+        <v>41.93881988525391</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>Allen Hurns</t>
+          <t>Justin Watson</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>37.78395462036133</v>
+        <v>41.89218139648438</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Justin Hardee</t>
+          <t>Darius Jennings</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>37.51751708984375</v>
+        <v>40.47516250610352</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Marvin Hall</t>
+          <t>Andre Holmes</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>36.7988166809082</v>
+        <v>39.64942932128906</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Russell Gage</t>
+          <t>Michael Floyd</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>36.61688613891602</v>
+        <v>39.50303649902344</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Andre Roberts</t>
+          <t>Russell Gage</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>35.82959747314453</v>
+        <v>38.84371185302734</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>Jaron Brown</t>
+          <t>Justin Hardy</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>35.78893661499023</v>
+        <v>37.87209320068359</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>Josh Bellamy</t>
+          <t>Sammie Coates</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>34.80701446533203</v>
+        <v>37.63657379150391</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Trent Taylor</t>
+          <t>Richie James</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>34.74990081787109</v>
+        <v>37.54953765869141</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Darius Jennings</t>
+          <t>Dwayne Harris</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>34.56996536254883</v>
+        <v>37.51086044311523</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Andre Holmes</t>
+          <t>Marcus Kemp</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>34.3306884765625</v>
+        <v>36.99998092651367</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Brandon Zylstra</t>
+          <t>Marvin Hall</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>33.11710739135742</v>
+        <v>36.43991470336914</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Dwayne Harris</t>
+          <t>Justin Hardee</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>32.58935165405273</v>
+        <v>34.67343902587891</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Justin Hardy</t>
+          <t>Brandon Zylstra</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>30.14042663574219</v>
+        <v>33.80160140991211</v>
       </c>
     </row>
     <row r="120">
@@ -1565,17 +1565,17 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>27.61907196044922</v>
+        <v>33.45795059204102</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Charone Peake</t>
+          <t>Cody Core</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>27.00578689575195</v>
+        <v>31.26055908203125</v>
       </c>
     </row>
     <row r="122">
@@ -1585,27 +1585,27 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>26.57943153381348</v>
+        <v>30.17595863342285</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Cody Core</t>
+          <t>KhaDarel Hodge</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>24.0019474029541</v>
+        <v>29.42404174804688</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>KhaDarel Hodge</t>
+          <t>Cordarrelle Patterson</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>23.23746490478516</v>
+        <v>28.64033508300781</v>
       </c>
     </row>
     <row r="125">
@@ -1615,47 +1615,47 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>22.75424194335938</v>
+        <v>28.44663619995117</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>JJ Nelson</t>
+          <t>Charone Peake</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>20.77191162109375</v>
+        <v>27.95623397827148</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Austin Carr</t>
+          <t>T.J. Jones</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>17.9644775390625</v>
+        <v>27.65004539489746</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Cordarrelle Patterson</t>
+          <t>JJ Nelson</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>17.5555591583252</v>
+        <v>25.87343978881836</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>T.J. Jones</t>
+          <t>Austin Carr</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>16.77065658569336</v>
+        <v>24.80584335327148</v>
       </c>
     </row>
   </sheetData>
